--- a/results/LR/125Hz_2classes/res_hyperopt.xlsx
+++ b/results/LR/125Hz_2classes/res_hyperopt.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>load</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -465,14 +465,14 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'C': 2.711720889924882, 'tol': 6.1420313854938995e-06}</t>
+          <t>{'C': 2.678451949041441, 'tol': 8.962999803695087e-05}</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'C': 0.0002660188843341629, 'tol': 2.8610961249986827e-06}</t>
+          <t>{'C': 0.0001636897854708199, 'tol': 0.006282095761029227}</t>
         </is>
       </c>
     </row>
@@ -510,11 +510,11 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'C': 2.451868476665836, 'tol': 5.573676613882835e-05}</t>
+          <t>{'C': 2.20909823845157, 'tol': 0.04809735916732493}</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'C': 0.02023592183586851, 'tol': 0.011284863560586313}</t>
+          <t>{'C': 0.021008754061879128, 'tol': 0.00023533861365209211}</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'C': 2.630680269137543, 'tol': 9.569496917120815e-05}</t>
+          <t>{'C': 2.605685049599842, 'tol': 0.01637740489898275}</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'C': 1.4880931368048613, 'tol': 6.36737499102743e-06}</t>
+          <t>{'C': 0.0011043012159639295, 'tol': 0.012728494051500411}</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
       <c r="D8" t="n">
         <v>0.67</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'C': 1.3497613457845923, 'tol': 0.005240356817641224}</t>
+          <t>{'C': 5.763115770323071e-05, 'tol': 0.03488887132195817}</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="D9" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'C': 1.6851764203254616, 'tol': 0.18359448726873728}</t>
+          <t>{'C': 1.1695593426401623, 'tol': 0.0019485651297208157}</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'C': 0.9680544206863231, 'tol': 0.00025596676619961194}</t>
+          <t>{'C': 0.3864408010568988, 'tol': 0.18048130085964}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'C': 0.0007860972773035013, 'tol': 0.0008028329478744868}</t>
+          <t>{'C': 0.0007964967780202647, 'tol': 0.0016419367072446891}</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'C': 0.0001251348136362109, 'tol': 0.017717546258238098}</t>
+          <t>{'C': 0.00012507146056539296, 'tol': 0.0012988167046153157}</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="D13" t="n">
         <v>0.68</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'C': 0.00014964959257982794, 'tol': 3.2101748937979474e-05}</t>
+          <t>{'C': 0.00015803915420123808, 'tol': 0.28740097827786876}</t>
         </is>
       </c>
     </row>
@@ -717,14 +717,14 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="D14" t="n">
         <v>0.68</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'C': 2.644973105140852, 'tol': 3.10221545074762e-05}</t>
+          <t>{'C': 1.8711890918298746, 'tol': 6.471576373251831e-05}</t>
         </is>
       </c>
     </row>
@@ -738,14 +738,14 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="D15" t="n">
         <v>0.67</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'C': 2.718065216114573, 'tol': 0.12701711792932693}</t>
+          <t>{'C': 2.073050150393529, 'tol': 7.229872952487833e-06}</t>
         </is>
       </c>
     </row>
@@ -759,14 +759,14 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="D16" t="n">
         <v>0.63</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'C': 2.661475459000165, 'tol': 0.00032037207107186777}</t>
+          <t>{'C': 1.928894616831059, 'tol': 8.169051796740866e-06}</t>
         </is>
       </c>
     </row>
